--- a/sample_for_user.xlsx
+++ b/sample_for_user.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Эталон</t>
   </si>
@@ -67,13 +67,16 @@
     <t>г. Москва, ул. Ватутина, д. 10</t>
   </si>
   <si>
-    <t>Студия</t>
+    <t>0.5</t>
   </si>
   <si>
     <t>Новостройка</t>
   </si>
   <si>
     <t>Кирпич</t>
+  </si>
+  <si>
+    <t>Нет</t>
   </si>
   <si>
     <t>Без отделки</t>
@@ -487,14 +490,14 @@
       <c r="I3" s="7">
         <v>14.0</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>15</v>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K3" s="5">
         <v>11.0</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -502,19 +505,19 @@
         <v>0.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4">
         <v>1.0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4">
         <v>5.0</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4">
         <v>10.0</v>
@@ -532,7 +535,7 @@
         <v>11.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
